--- a/data/Supplemental File 7_scRNAseq Ciliary Genes with Expression Changes 12.6.21.xlsx
+++ b/data/Supplemental File 7_scRNAseq Ciliary Genes with Expression Changes 12.6.21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelseytroyer/Dropbox/Dev Cell-Resource-CiliaHet-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THOQ4R\Desktop\Dev Cell-Resource-CiliaHet-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5103FFC8-6135-8E4A-9D84-C7A79537C44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6711A0E-857B-4640-9D59-98F13DE1D15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="780" windowWidth="26500" windowHeight="14300" activeTab="1" xr2:uid="{B7D0545F-CC6C-5940-9B34-4B2CEEC32F6D}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10920" activeTab="1" xr2:uid="{B7D0545F-CC6C-5940-9B34-4B2CEEC32F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -282,7 +281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,12 +423,16 @@
           <cell r="B9" t="str">
             <v>SEPT6</v>
           </cell>
+          <cell r="C9"/>
+          <cell r="D9"/>
           <cell r="E9">
             <v>3075</v>
           </cell>
           <cell r="F9">
             <v>-3.693046941</v>
           </cell>
+          <cell r="G9"/>
+          <cell r="H9"/>
           <cell r="I9" t="str">
             <v>SEPTIN6</v>
           </cell>
@@ -438,12 +441,16 @@
           <cell r="B10" t="str">
             <v>SEPT9</v>
           </cell>
+          <cell r="C10"/>
+          <cell r="D10"/>
           <cell r="E10">
             <v>3258</v>
           </cell>
           <cell r="F10">
             <v>-3.7092361789999999</v>
           </cell>
+          <cell r="G10"/>
+          <cell r="H10"/>
           <cell r="I10" t="str">
             <v>SEPTIN9</v>
           </cell>
@@ -464,6 +471,8 @@
           <cell r="F11">
             <v>-2.3175378059999998</v>
           </cell>
+          <cell r="G11"/>
+          <cell r="H11"/>
           <cell r="I11" t="str">
             <v>SEPTIN2</v>
           </cell>
@@ -484,6 +493,8 @@
           <cell r="F12">
             <v>-3.7092361789999999</v>
           </cell>
+          <cell r="G12"/>
+          <cell r="H12"/>
           <cell r="I12" t="str">
             <v>SEPTIN7</v>
           </cell>
@@ -766,6 +777,7 @@
           <cell r="H24" t="str">
             <v>X</v>
           </cell>
+          <cell r="I24"/>
         </row>
         <row r="25">
           <cell r="B25" t="str">
@@ -1502,6 +1514,7 @@
           <cell r="F56">
             <v>-5.2389218489840603</v>
           </cell>
+          <cell r="G56"/>
           <cell r="H56" t="str">
             <v>X</v>
           </cell>
@@ -15356,6 +15369,7 @@
           <cell r="C653" t="str">
             <v xml:space="preserve"> </v>
           </cell>
+          <cell r="D653"/>
           <cell r="E653">
             <v>340</v>
           </cell>
@@ -20328,6 +20342,7 @@
           <cell r="C868" t="str">
             <v xml:space="preserve"> </v>
           </cell>
+          <cell r="D868"/>
           <cell r="E868">
             <v>3074</v>
           </cell>
@@ -23754,6 +23769,7 @@
           <cell r="C1015" t="str">
             <v xml:space="preserve"> </v>
           </cell>
+          <cell r="D1015"/>
           <cell r="E1015">
             <v>252</v>
           </cell>
@@ -24237,42 +24253,42 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="30.6" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -24298,7 +24314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
@@ -24328,7 +24344,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -24356,7 +24372,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
@@ -24384,7 +24400,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -24414,7 +24430,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
@@ -24444,7 +24460,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
@@ -24472,7 +24488,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
@@ -24502,7 +24518,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
@@ -24532,7 +24548,7 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
@@ -24560,7 +24576,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
@@ -24588,7 +24604,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
         <v>4</v>
       </c>
@@ -24616,7 +24632,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
@@ -24644,7 +24660,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="7" t="s">
         <v>3</v>
       </c>
@@ -24672,7 +24688,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -24700,7 +24716,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
@@ -24730,7 +24746,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="7" t="s">
         <v>31</v>
       </c>
@@ -24758,7 +24774,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -24788,7 +24804,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
         <v>9</v>
       </c>
@@ -24816,7 +24832,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -24844,7 +24860,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
@@ -24872,7 +24888,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -24885,7 +24901,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -24898,7 +24914,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -24921,46 +24937,46 @@
   <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="5"/>
+    <col min="4" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="15">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="15">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="15">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="30.6" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -24982,14 +24998,14 @@
       <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="I7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="12" t="s">
         <v>47</v>
       </c>
@@ -25013,7 +25029,7 @@
       </c>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
@@ -25037,7 +25053,7 @@
       </c>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
@@ -25059,11 +25075,12 @@
       <c r="G10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="12" t="s">
         <v>48</v>
       </c>
@@ -25085,9 +25102,11 @@
       <c r="G11" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H11" s="5"/>
+      <c r="I11"/>
       <c r="K11" s="11"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="12" t="s">
         <v>0</v>
       </c>
@@ -25109,11 +25128,12 @@
       <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="12" t="s">
         <v>39</v>
       </c>
@@ -25135,8 +25155,10 @@
       <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H13" s="5"/>
+      <c r="I13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="12" t="s">
         <v>1</v>
       </c>
@@ -25158,11 +25180,12 @@
       <c r="G14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I14"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="12" t="s">
         <v>2</v>
       </c>
@@ -25184,11 +25207,12 @@
       <c r="G15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="12" t="s">
         <v>44</v>
       </c>
@@ -25210,8 +25234,10 @@
       <c r="G16" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="H16" s="5"/>
+      <c r="I16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="12" t="s">
         <v>3</v>
       </c>
@@ -25233,8 +25259,10 @@
       <c r="G17" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H17" s="5"/>
+      <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
@@ -25256,8 +25284,10 @@
       <c r="G18" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H18" s="5"/>
+      <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
@@ -25279,8 +25309,10 @@
       <c r="G19" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H19" s="5"/>
+      <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="12" t="s">
         <v>5</v>
       </c>
@@ -25302,8 +25334,10 @@
       <c r="G20" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H20" s="5"/>
+      <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="12" t="s">
         <v>42</v>
       </c>
@@ -25325,11 +25359,12 @@
       <c r="G21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="12" t="s">
         <v>6</v>
       </c>
@@ -25351,8 +25386,10 @@
       <c r="G22" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H22" s="5"/>
+      <c r="I22"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="12" t="s">
         <v>50</v>
       </c>
@@ -25374,8 +25411,10 @@
       <c r="G23" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H23" s="5"/>
+      <c r="I23"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
@@ -25397,8 +25436,10 @@
       <c r="G24" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H24" s="5"/>
+      <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="12" t="s">
         <v>46</v>
       </c>
@@ -25420,8 +25461,10 @@
       <c r="G25" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H25" s="5"/>
+      <c r="I25"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="12" t="s">
         <v>10</v>
       </c>
@@ -25443,11 +25486,12 @@
       <c r="G26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="12" t="s">
         <v>45</v>
       </c>
@@ -25469,8 +25513,10 @@
       <c r="G27" s="12" t="s">
         <v>26</v>
       </c>
+      <c r="H27" s="5"/>
+      <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="12" t="s">
         <v>51</v>
       </c>
@@ -25494,7 +25540,7 @@
       </c>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="14" t="s">
         <v>40</v>
       </c>
@@ -25518,7 +25564,7 @@
       </c>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="14" t="s">
         <v>41</v>
       </c>
@@ -25542,7 +25588,7 @@
       </c>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="14" t="s">
         <v>34</v>
       </c>
@@ -25566,7 +25612,7 @@
       </c>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
@@ -25590,7 +25636,7 @@
       </c>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="14" t="s">
         <v>49</v>
       </c>
@@ -25614,7 +25660,7 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="14" t="s">
         <v>36</v>
       </c>
@@ -25638,7 +25684,7 @@
       </c>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
         <v>37</v>
       </c>
@@ -25660,11 +25706,12 @@
       <c r="G35" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I35"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="15" t="s">
         <v>31</v>
       </c>
@@ -25687,8 +25734,9 @@
         <v>26</v>
       </c>
       <c r="H36" s="5"/>
+      <c r="I36"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="15" t="s">
         <v>32</v>
       </c>
@@ -25710,12 +25758,12 @@
       <c r="G37" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I37"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="15" t="s">
         <v>52</v>
       </c>
@@ -25738,8 +25786,9 @@
         <v>26</v>
       </c>
       <c r="H38" s="5"/>
+      <c r="I38"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="15" t="s">
         <v>9</v>
       </c>
@@ -25762,8 +25811,9 @@
         <v>26</v>
       </c>
       <c r="H39" s="5"/>
+      <c r="I39"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="15" t="s">
         <v>8</v>
       </c>
@@ -25786,8 +25836,9 @@
         <v>26</v>
       </c>
       <c r="H40" s="5"/>
+      <c r="I40"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="15" t="s">
         <v>33</v>
       </c>
@@ -25810,8 +25861,9 @@
         <v>26</v>
       </c>
       <c r="H41" s="5"/>
+      <c r="I41"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="15" t="s">
         <v>53</v>
       </c>
@@ -25834,8 +25886,9 @@
         <v>26</v>
       </c>
       <c r="H42" s="5"/>
+      <c r="I42"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="15" t="s">
         <v>54</v>
       </c>
@@ -25858,8 +25911,9 @@
         <v>26</v>
       </c>
       <c r="H43" s="5"/>
+      <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="15" t="s">
         <v>55</v>
       </c>
@@ -25882,8 +25936,9 @@
         <v>26</v>
       </c>
       <c r="H44" s="5"/>
+      <c r="I44"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="15" t="s">
         <v>56</v>
       </c>
@@ -25906,8 +25961,9 @@
         <v>26</v>
       </c>
       <c r="H45" s="5"/>
+      <c r="I45"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="15" t="s">
         <v>57</v>
       </c>
@@ -25930,8 +25986,9 @@
         <v>26</v>
       </c>
       <c r="H46" s="5"/>
+      <c r="I46"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="15" t="s">
         <v>58</v>
       </c>
@@ -25954,8 +26011,9 @@
         <v>26</v>
       </c>
       <c r="H47" s="5"/>
+      <c r="I47"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="15" t="s">
         <v>59</v>
       </c>
@@ -25978,8 +26036,9 @@
         <v>26</v>
       </c>
       <c r="H48" s="5"/>
+      <c r="I48"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="15" t="s">
         <v>60</v>
       </c>
@@ -26001,12 +26060,12 @@
       <c r="G49" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="I49"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="15" t="s">
         <v>61</v>
       </c>
@@ -26029,8 +26088,9 @@
         <v>26</v>
       </c>
       <c r="H50" s="5"/>
+      <c r="I50"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="15" t="s">
         <v>63</v>
       </c>
@@ -26049,12 +26109,12 @@
       <c r="F51" s="5"/>
       <c r="G51" s="14"/>
       <c r="H51" s="5"/>
-      <c r="J51" s="5" t="str">
+      <c r="I51" s="5" t="str">
         <f>VLOOKUP(A51,'[1]Custom Ciliome Table'!$B$9:$I$1022,8,FALSE)</f>
         <v>SEPTIN2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="15" t="s">
         <v>62</v>
       </c>
@@ -26077,8 +26137,9 @@
         <v>26</v>
       </c>
       <c r="H52" s="5"/>
+      <c r="I52"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="7"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -26087,7 +26148,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="7"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -26096,7 +26157,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="7"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -26105,7 +26166,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="7"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -26114,7 +26175,7 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="7"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -26123,7 +26184,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="7"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -26132,7 +26193,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="7"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -26141,7 +26202,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="7"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -26150,7 +26211,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="7"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -26159,7 +26220,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="7"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -26168,7 +26229,7 @@
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="7"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -26177,7 +26238,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="7"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -26186,7 +26247,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="7"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -26195,7 +26256,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="7"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -26204,7 +26265,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="7"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -26213,7 +26274,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="7"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -26222,7 +26283,7 @@
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="7"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -26231,7 +26292,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="7"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -26240,7 +26301,7 @@
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="7"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -26249,7 +26310,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="7"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -26258,7 +26319,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="7"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -26267,7 +26328,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="7"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -26276,7 +26337,7 @@
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="7"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -26285,7 +26346,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="7"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -26294,7 +26355,7 @@
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="7"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -26303,7 +26364,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="7"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -26312,7 +26373,7 @@
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="7"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -26321,7 +26382,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="7"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -26330,7 +26391,7 @@
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="7"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -26339,7 +26400,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="10"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -26348,7 +26409,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="7"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -26357,7 +26418,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="7"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -26368,5 +26429,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Supplemental File 7_scRNAseq Ciliary Genes with Expression Changes 12.6.21.xlsx
+++ b/data/Supplemental File 7_scRNAseq Ciliary Genes with Expression Changes 12.6.21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THOQ4R\Desktop\Dev Cell-Resource-CiliaHet-2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Konrad\Shiny_Sam\Ciliome_Gene_Expression\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6711A0E-857B-4640-9D59-98F13DE1D15F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1579391E-1C4F-4AA6-AA4C-85748C832430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="20460" windowHeight="10920" activeTab="1" xr2:uid="{B7D0545F-CC6C-5940-9B34-4B2CEEC32F6D}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="20460" windowHeight="10920" xr2:uid="{B7D0545F-CC6C-5940-9B34-4B2CEEC32F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
@@ -24249,8 +24249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39838E8A-8773-7343-B3E4-80D26C042FFC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -24310,7 +24310,7 @@
       <c r="G7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -24336,8 +24336,7 @@
       <c r="G8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="5"/>
@@ -24367,7 +24366,6 @@
         <v>26</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="7"/>
       <c r="L9" s="5"/>
@@ -24395,7 +24393,6 @@
         <v>26</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
@@ -24422,8 +24419,7 @@
       <c r="G11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J11" s="5"/>
@@ -24452,8 +24448,7 @@
       <c r="G12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J12" s="5"/>
@@ -24483,7 +24478,6 @@
         <v>26</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -24510,8 +24504,7 @@
       <c r="G14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="5"/>
@@ -24540,8 +24533,7 @@
       <c r="G15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="5"/>
@@ -24571,7 +24563,6 @@
         <v>26</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -24599,7 +24590,6 @@
         <v>26</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -24627,7 +24617,6 @@
         <v>26</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -24655,7 +24644,6 @@
         <v>26</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -24683,7 +24671,6 @@
         <v>26</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -24711,7 +24698,6 @@
         <v>26</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -24738,8 +24724,7 @@
       <c r="G22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="5"/>
@@ -24769,7 +24754,6 @@
         <v>26</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
       <c r="J23" s="6"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -24796,8 +24780,7 @@
       <c r="G24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="J24" s="5"/>
@@ -24827,7 +24810,6 @@
         <v>26</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -24855,7 +24837,6 @@
         <v>26</v>
       </c>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -24883,7 +24864,6 @@
         <v>26</v>
       </c>
       <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -24929,6 +24909,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24936,8 +24917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B76E571-18A4-9A40-8065-D141F2BB2334}">
   <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
